--- a/Proyectos/2016/1/P1415 - RNCCOM. Lizeth Guerra_MO/Planeacion/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1415 - RNCCOM. Lizeth Guerra_MO/Planeacion/Plan_de_proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -559,7 +560,7 @@
     <t>Reportar el servicio fallido y cambiar la conexón de todas las maquinas</t>
   </si>
   <si>
-    <t>Mitigado</t>
+    <t>Vencido</t>
   </si>
   <si>
     <t>Probabilidad</t>
@@ -575,9 +576,6 @@
   </si>
   <si>
     <t>Enviar mensajes solicitando  al cliente la respuesta</t>
-  </si>
-  <si>
-    <t>Abierto</t>
   </si>
   <si>
     <t>Semanal</t>
@@ -1358,7 +1356,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1773,15 +1771,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1790,8 +1788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9201240"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9200880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,15 +1815,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1834,8 +1832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9201240"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9200880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,15 +1859,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1878,8 +1876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9201240"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9200880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2048,7 +2046,7 @@
   </sheetPr>
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4594,6 +4592,27 @@
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39" t="s">
@@ -9285,8 +9304,8 @@
   </sheetPr>
   <dimension ref="A1:JA39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9397,7 +9416,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="81" t="n">
         <v>5</v>
       </c>
@@ -9462,7 +9481,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="94" t="n">
         <v>6</v>
       </c>
@@ -9492,14 +9511,14 @@
         <v>55</v>
       </c>
       <c r="J6" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="85" t="s">
         <v>139</v>
-      </c>
-      <c r="K6" s="85" t="s">
-        <v>140</v>
       </c>
       <c r="IS6" s="86"/>
       <c r="IT6" s="87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="IU6" s="88" t="n">
         <v>0.7</v>
@@ -9544,7 +9563,7 @@
       <c r="K7" s="102"/>
       <c r="IS7" s="86"/>
       <c r="IT7" s="87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="IU7" s="88" t="n">
         <v>0.5</v>
@@ -9589,7 +9608,7 @@
       <c r="K8" s="102"/>
       <c r="IS8" s="86"/>
       <c r="IT8" s="87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="IU8" s="88" t="n">
         <v>0.3</v>
@@ -9634,7 +9653,7 @@
       <c r="K9" s="102"/>
       <c r="IS9" s="86"/>
       <c r="IT9" s="87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="IU9" s="109" t="n">
         <v>0.1</v>
@@ -9717,16 +9736,16 @@
       <c r="IT11" s="122"/>
       <c r="IU11" s="122"/>
       <c r="IV11" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="IW11" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="IW11" s="87" t="s">
+      <c r="IX11" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="IX11" s="87" t="s">
-        <v>144</v>
-      </c>
       <c r="IY11" s="87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="IZ11" s="124" t="s">
         <v>135</v>
@@ -9753,7 +9772,7 @@
       <c r="IT12" s="122"/>
       <c r="IU12" s="88"/>
       <c r="IV12" s="125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="IW12" s="125"/>
       <c r="IX12" s="125"/>
@@ -9858,12 +9877,12 @@
       <c r="J16" s="119"/>
       <c r="K16" s="120"/>
       <c r="IS16" s="130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="IT16" s="131"/>
       <c r="IU16" s="127"/>
       <c r="IV16" s="132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="IW16" s="132"/>
       <c r="IX16" s="132"/>
@@ -9888,12 +9907,12 @@
       <c r="J17" s="119"/>
       <c r="K17" s="120"/>
       <c r="IS17" s="130" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="IT17" s="133"/>
       <c r="IU17" s="127"/>
       <c r="IV17" s="132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="IW17" s="132"/>
       <c r="IX17" s="132"/>
@@ -9918,12 +9937,12 @@
       <c r="J18" s="119"/>
       <c r="K18" s="120"/>
       <c r="IS18" s="130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="IT18" s="134"/>
       <c r="IU18" s="127"/>
       <c r="IV18" s="132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="IW18" s="132"/>
       <c r="IX18" s="132"/>
@@ -10204,16 +10223,16 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J5" type="list">
-      <formula1>"Abierto,Mitigado,Ocurrido,Cerrado"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5" type="list">
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5" type="list">
       <formula1>",1,2,3,4,5"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J5:J6" type="list">
+      <formula1>"Abierto,Mitigado,Ocurrido,Cerrado,Vencido"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/Proyectos/2016/1/P1415 - RNCCOM. Lizeth Guerra_MO/Planeacion/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1415 - RNCCOM. Lizeth Guerra_MO/Planeacion/Plan_de_proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$20</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -311,25 +312,19 @@
     <t>Líder de ventas</t>
   </si>
   <si>
-    <t>Oriana Osiris de la Cruz</t>
+    <t>Marisol Ornelas</t>
   </si>
   <si>
     <t>33 14 21 95 20</t>
   </si>
   <si>
-    <t>oriana.campos@sos-soft.com</t>
+    <t>marisol.ornelas@sos-soft.com</t>
   </si>
   <si>
     <t>Generar plan de proyecto y dar seguimiento con inconformidades de calidad asi como generar la asignación de tarea</t>
   </si>
   <si>
     <t>Vendedor</t>
-  </si>
-  <si>
-    <t>Marisol Ornelas</t>
-  </si>
-  <si>
-    <t>marisol.ornelas@sos-soft.com</t>
   </si>
   <si>
     <t>Dar seguimiento a las ventas y seguir el proceso definido por la empresa</t>
@@ -1771,15 +1766,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1788,8 +1783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27360" y="0"/>
-          <a:ext cx="9524520" cy="9200880"/>
+          <a:off x="54360" y="0"/>
+          <a:ext cx="9524160" cy="9200520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1815,15 +1810,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1832,8 +1827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27360" y="0"/>
-          <a:ext cx="9524520" cy="9200880"/>
+          <a:off x="54360" y="0"/>
+          <a:ext cx="9524160" cy="9200520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1859,15 +1854,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1876,8 +1871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27360" y="0"/>
-          <a:ext cx="9524520" cy="9200880"/>
+          <a:off x="54360" y="0"/>
+          <a:ext cx="9524160" cy="9200520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,7 +1906,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="B5:B8 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -2047,7 +2042,7 @@
   <dimension ref="A1:AMI30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="B5:B8 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -4393,8 +4388,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4442,7 +4437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
         <v>49</v>
       </c>
@@ -4464,55 +4459,55 @@
         <v>54</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="30" t="n">
         <v>3313482553</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="30" t="n">
         <v>3318039095</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="E7" s="33" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>11</v>
@@ -4521,10 +4516,10 @@
         <v>3312448000</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,7 +4538,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -4552,16 +4547,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="D12" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>74</v>
       </c>
       <c r="E12" s="36"/>
     </row>
@@ -4616,7 +4611,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -4630,12 +4625,12 @@
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40"/>
       <c r="B22" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="oriana.campos@sos-soft.com"/>
+    <hyperlink ref="D4" r:id="rId1" display="marisol.ornelas@sos-soft.com"/>
     <hyperlink ref="D5" r:id="rId2" display="marisol.ornelas@sos-soft.com"/>
     <hyperlink ref="D6" r:id="rId3" display="zepeda.roque32@gmail.com"/>
     <hyperlink ref="D7" r:id="rId4" display="adriana.jaramillo@sos-soft.com"/>
@@ -4659,7 +4654,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="1" sqref="B5:B8 B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4674,19 +4669,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,8 +4766,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4787,7 +4782,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="B5:B8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5869,7 +5864,7 @@
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -6896,19 +6891,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="E3" s="50" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>86</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -8956,53 +8951,53 @@
     </row>
     <row r="5" s="56" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="55" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" s="56" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="E6" s="55" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" s="56" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="E7" s="55" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" s="56" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9056,7 +9051,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B5:B8 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9086,7 +9081,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9098,100 +9093,100 @@
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>108</v>
       </c>
       <c r="D4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="36"/>
       <c r="J4" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5" s="36"/>
       <c r="J5" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="36" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9304,8 +9299,8 @@
   </sheetPr>
   <dimension ref="A1:JA39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="1" sqref="B5:B8 H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9335,7 +9330,7 @@
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
@@ -9344,7 +9339,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
       <c r="IR2" s="69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="IS2" s="69"/>
       <c r="IT2" s="69"/>
@@ -9369,51 +9364,51 @@
       <c r="J3" s="73"/>
       <c r="K3" s="74"/>
       <c r="AE3" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF3" s="75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="E4" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="F4" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="G4" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="H4" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="I4" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="J4" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="K4" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>129</v>
-      </c>
       <c r="AE4" s="80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF4" s="80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9421,7 +9416,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="81" t="n">
         <v>5</v>
@@ -9437,25 +9432,25 @@
         <v>4</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="IS5" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="IT5" s="87" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="IS5" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="IT5" s="87" t="s">
-        <v>135</v>
       </c>
       <c r="IU5" s="88" t="n">
         <v>0.9</v>
@@ -9486,7 +9481,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="81" t="n">
         <v>1</v>
@@ -9502,23 +9497,23 @@
         <v>3</v>
       </c>
       <c r="G6" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="85" t="s">
         <v>137</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="85" t="s">
-        <v>139</v>
       </c>
       <c r="IS6" s="86"/>
       <c r="IT6" s="87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="IU6" s="88" t="n">
         <v>0.7</v>
@@ -9563,7 +9558,7 @@
       <c r="K7" s="102"/>
       <c r="IS7" s="86"/>
       <c r="IT7" s="87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="IU7" s="88" t="n">
         <v>0.5</v>
@@ -9608,7 +9603,7 @@
       <c r="K8" s="102"/>
       <c r="IS8" s="86"/>
       <c r="IT8" s="87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="IU8" s="88" t="n">
         <v>0.3</v>
@@ -9653,7 +9648,7 @@
       <c r="K9" s="102"/>
       <c r="IS9" s="86"/>
       <c r="IT9" s="87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="IU9" s="109" t="n">
         <v>0.1</v>
@@ -9736,19 +9731,19 @@
       <c r="IT11" s="122"/>
       <c r="IU11" s="122"/>
       <c r="IV11" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="IW11" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="IX11" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="IW11" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="IX11" s="87" t="s">
-        <v>143</v>
-      </c>
       <c r="IY11" s="87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="IZ11" s="124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9772,7 +9767,7 @@
       <c r="IT12" s="122"/>
       <c r="IU12" s="88"/>
       <c r="IV12" s="125" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="IW12" s="125"/>
       <c r="IX12" s="125"/>
@@ -9849,7 +9844,7 @@
       <c r="J15" s="119"/>
       <c r="K15" s="120"/>
       <c r="IS15" s="129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="IT15" s="129"/>
       <c r="IU15" s="127"/>
@@ -9877,12 +9872,12 @@
       <c r="J16" s="119"/>
       <c r="K16" s="120"/>
       <c r="IS16" s="130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="IT16" s="131"/>
       <c r="IU16" s="127"/>
       <c r="IV16" s="132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="IW16" s="132"/>
       <c r="IX16" s="132"/>
@@ -9907,12 +9902,12 @@
       <c r="J17" s="119"/>
       <c r="K17" s="120"/>
       <c r="IS17" s="130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="IT17" s="133"/>
       <c r="IU17" s="127"/>
       <c r="IV17" s="132" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="IW17" s="132"/>
       <c r="IX17" s="132"/>
@@ -9937,12 +9932,12 @@
       <c r="J18" s="119"/>
       <c r="K18" s="120"/>
       <c r="IS18" s="130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="IT18" s="134"/>
       <c r="IU18" s="127"/>
       <c r="IV18" s="132" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="IW18" s="132"/>
       <c r="IX18" s="132"/>
